--- a/medicine/Enfance/Katherine_Alice_Applegate/Katherine_Alice_Applegate.xlsx
+++ b/medicine/Enfance/Katherine_Alice_Applegate/Katherine_Alice_Applegate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine Alice Applegate, née le 9 octobre 1956[1],[2] à Ann Arbor dans le Michigan, est une romancière américaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine Alice Applegate, née le 9 octobre 1956, à Ann Arbor dans le Michigan, est une romancière américaine.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Katherine Alice Applegate est l'autrice de plusieurs séries de science-fiction, Les Survivants (Remnants), Everworld et Animorphs, qu'elle a écrit avec son mari Michael Grant, lui-même auteur de la série Gone.
 Elle a écrit plus de soixante-dix livres pour les adolescents, dont les séries précitées mais aussi la série Prénom Zoé (Boyfriends/Girlfriends puis Making Out) et d'autres livres sur les amours adolescentes.
-Elle vit actuellement à Chapel Hill.[pertinence contestée][3]
+Elle vit actuellement à Chapel Hill.[pertinence contestée]
 Elle a écrit aussi sous de nombreux pseudonymes dont  Alida E. Young, Chris Archer, Katherine Kendall et Elizabeth Benning.
 </t>
         </is>
@@ -547,9 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Animorphs
-Série Les Survivants
-Dernier Refuge (The Mayflower Project)
+          <t>Série Les Survivants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dernier Refuge (The Mayflower Project)
 Destination inconnue (Destination Unknown)
 Jeu mortel (Them)
 Unis contre l'ennemi (Nowhere Land)
@@ -562,10 +580,43 @@
 Dream Storm (non traduit)
 Aftermath (non traduit)
 Survival (non traduit)
-Begin Again (non traduit)
-Série Everworld
-Série Prénom Zoé
-Mauvaise Soirée (Zoey Fools Around)
+Begin Again (non traduit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Prénom Zoé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauvaise Soirée (Zoey Fools Around)
 Coup de théâtre  (Jake Finds Out)
 Le Secret (Nina Won't Tell )
 Descente aux Enfers
@@ -576,21 +627,157 @@
 L'Intruse
 Le Grand Saut
 Rêve caché
-Dilemme amoureux 
-Autres ouvrages
-Home of the Brave
+Dilemme amoureux </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Home of the Brave
 The Buffalo Storm
 Roscoe Riley Rules
 Beach Blondes, A Summer Novel
 Tan Lines, A Summer Novel
-Willodeen, Seuil jeunesse, 2022, 288p.
-Sous le pseudonyme de Katherine Kendall
-Vertige, Harlequin, 1989 ((en) The Midas Touch, 1988)Publié dans la collection Rouge passion, n°68
-L'ode à Laura, Flammarion, 1992 ((en) First and Forever, 1991)Publié dans la collection Duo Désir, n°360
-Sous le pseudonyme de Chris Archer
-Série Haute Tension (Mindwarp), parue en 1998
-Divers
-Un mensonge d'amitié, éditions Mango, collection Mango poche Coups de cœur (1999)
+Willodeen, Seuil jeunesse, 2022, 288p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Katherine Kendall</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vertige, Harlequin, 1989 ((en) The Midas Touch, 1988)Publié dans la collection Rouge passion, n°68
+L'ode à Laura, Flammarion, 1992 ((en) First and Forever, 1991)Publié dans la collection Duo Désir, n°360</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Chris Archer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Série Haute Tension (Mindwarp), parue en 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Alice_Applegate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un mensonge d'amitié, éditions Mango, collection Mango poche Coups de cœur (1999)
 Série Girl Talk, sous le pseudonyme L. E. Blair
 Série Ocean City (republié sous le titre Making Waves puis Summer)
 Série Barf-O-Rama, sous le pseudonyme Pat Pollari
